--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679092.7629389785</v>
+        <v>604434.9558680438</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009818</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873706.155907721</v>
+        <v>7873706.15590772</v>
       </c>
     </row>
     <row r="11">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>154.8359655669564</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,70 +1135,70 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>52.59068757410278</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>91.10378467502363</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>163.3657543017353</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>76.62446154719007</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.884372849250095</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>320.9523923558271</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952547</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>313.8295095447915</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1706,7 +1706,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493639</v>
+        <v>73.93425515493647</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>83.82238898492545</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>104.0614439933451</v>
       </c>
     </row>
     <row r="16">
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802078</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994451</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>145.4436608319861</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>191.1964155683406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>303.2713145200626</v>
       </c>
       <c r="X17" t="n">
-        <v>353.5759586385873</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.2491677474088</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>348.1338857353172</v>
+        <v>52.26209087956677</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2219,7 +2219,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>83.82953530753672</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>216.6993815150879</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>317.878097678842</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>165.1524189989505</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250819</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>72.75222284062217</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>46.87625964629893</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>89.06613335611763</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>299.9471425134001</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>116.4027212788969</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2927,7 +2927,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.06613335611763</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,10 +3046,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>97.79015300852267</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>128.7282531589278</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>203.6154403134047</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>4.440065804380572</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.790440613649183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>316.0553253377146</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>132.5621367133955</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>36.86740133315034</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>63.24394419057808</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>56.49576810820431</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>390.6425722280362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>393.3927785723429</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>81.25819606329408</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>706.487660844374</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>471.3355526126313</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4843,13 +4843,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>703.1749501051744</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>528.7219208240474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>528.7219208240474</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>910.9352488701284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>910.9352488701284</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>703.1749501051744</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4980,19 +4980,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672.0084928939002</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>672.0084928939002</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>672.0084928939002</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
-        <v>672.0084928939002</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F11" t="n">
-        <v>393.0625194571775</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>114.1165460204547</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5044,7 +5044,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412869</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>896.7353068029595</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T11" t="n">
-        <v>672.0084928939002</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U11" t="n">
-        <v>672.0084928939002</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V11" t="n">
-        <v>672.0084928939002</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W11" t="n">
-        <v>672.0084928939002</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X11" t="n">
-        <v>672.0084928939002</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.0084928939002</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.2519730171373</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C12" t="n">
-        <v>476.7989437360102</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D12" t="n">
-        <v>327.864534074759</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E12" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
         <v>22.09252109618844</v>
@@ -5129,13 +5129,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>634.3469862468015</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>907.7419348121334</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5156,16 +5156,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V12" t="n">
-        <v>1104.626054809422</v>
+        <v>939.6101413733256</v>
       </c>
       <c r="W12" t="n">
-        <v>1104.626054809422</v>
+        <v>939.6101413733256</v>
       </c>
       <c r="X12" t="n">
-        <v>1027.227608802159</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y12" t="n">
-        <v>819.4673100372054</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>30.05653407522894</v>
       </c>
       <c r="E13" t="n">
         <v>22.09252109618844</v>
@@ -5223,28 +5223,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1912.080877860976</v>
+        <v>835.0157749450711</v>
       </c>
       <c r="C14" t="n">
-        <v>1912.080877860976</v>
+        <v>835.0157749450711</v>
       </c>
       <c r="D14" t="n">
-        <v>1587.886542148019</v>
+        <v>835.0157749450711</v>
       </c>
       <c r="E14" t="n">
-        <v>1202.098289549775</v>
+        <v>449.227522346827</v>
       </c>
       <c r="F14" t="n">
-        <v>791.1123847601673</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4625106837395</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827269</v>
+        <v>96.93923871827218</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977726</v>
+        <v>305.6565612977715</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480093</v>
+        <v>616.8654835480078</v>
       </c>
       <c r="M14" t="n">
-        <v>979.751918564076</v>
+        <v>979.7519185640737</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938977</v>
+        <v>1333.878237938974</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653888</v>
+        <v>1623.082041653885</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250557</v>
+        <v>1832.236414250553</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="X14" t="n">
-        <v>1912.080877860976</v>
+        <v>1538.615119599891</v>
       </c>
       <c r="Y14" t="n">
-        <v>1912.080877860976</v>
+        <v>1221.615615009193</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.3473053594665</v>
+        <v>681.1754406927597</v>
       </c>
       <c r="C15" t="n">
-        <v>814.8942760783395</v>
+        <v>506.7224114116327</v>
       </c>
       <c r="D15" t="n">
-        <v>665.9598664170883</v>
+        <v>506.7224114116327</v>
       </c>
       <c r="E15" t="n">
         <v>506.7224114116327</v>
@@ -5354,55 +5354,55 @@
         <v>112.9226833702866</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877823</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6600398753091</v>
+        <v>235.3935185137499</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6600398753091</v>
+        <v>561.8929756923579</v>
       </c>
       <c r="M15" t="n">
-        <v>709.6487280585545</v>
+        <v>994.8816638756028</v>
       </c>
       <c r="N15" t="n">
-        <v>1169.804351807415</v>
+        <v>1455.037287624463</v>
       </c>
       <c r="O15" t="n">
-        <v>1524.341170588431</v>
+        <v>1809.574106405478</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.885156500864</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="S15" t="n">
-        <v>1912.080877860976</v>
+        <v>1912.080877860971</v>
       </c>
       <c r="T15" t="n">
-        <v>1912.080877860976</v>
+        <v>1711.722749423567</v>
       </c>
       <c r="U15" t="n">
-        <v>1912.080877860976</v>
+        <v>1483.528975548484</v>
       </c>
       <c r="V15" t="n">
-        <v>1827.411798078223</v>
+        <v>1248.376867316742</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.174441350021</v>
+        <v>994.1395105885401</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.322941144488</v>
+        <v>786.2880103830073</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.562642379535</v>
+        <v>681.1754406927597</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="C16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="D16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="E16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="F16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="G16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727447</v>
+        <v>59.5008832572742</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473022</v>
+        <v>142.2318586473017</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519037</v>
+        <v>239.849195551903</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922431</v>
+        <v>340.5800267922421</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856864</v>
+        <v>417.6049576856852</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041408</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="Q16" t="n">
-        <v>404.8059955687663</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="R16" t="n">
-        <v>404.8059955687663</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1544062763974</v>
+        <v>459.9924103041393</v>
       </c>
       <c r="T16" t="n">
-        <v>38.24161755721951</v>
+        <v>231.3693100504928</v>
       </c>
       <c r="U16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="V16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="W16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="X16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.24161755721951</v>
+        <v>38.24161755721943</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>952.5674858910851</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C17" t="n">
-        <v>952.5674858910851</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.483574129469</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859355</v>
+        <v>2137.052644524937</v>
       </c>
       <c r="X17" t="n">
-        <v>952.5674858910851</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.5674858910851</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5621,16 +5621,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W19" t="n">
-        <v>211.4036268380754</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1310.833184497836</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C20" t="n">
-        <v>1310.833184497836</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D20" t="n">
-        <v>952.5674858910851</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E20" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1310.833184497836</v>
+        <v>2644.359100230781</v>
       </c>
       <c r="X20" t="n">
-        <v>1310.833184497836</v>
+        <v>2270.893341969701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1310.833184497836</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5867,13 +5867,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027575</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931987</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>286.5323736931987</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V22" t="n">
-        <v>286.5323736931987</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5323736931987</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X22" t="n">
-        <v>286.5323736931987</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y22" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1380.123535465744</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="C23" t="n">
-        <v>1011.161018525332</v>
+        <v>1151.261476083314</v>
       </c>
       <c r="D23" t="n">
-        <v>1011.161018525332</v>
+        <v>792.9957774765635</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>792.9957774765635</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>792.9957774765635</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>375.0319693747504</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W23" t="n">
-        <v>2530.328465766757</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X23" t="n">
-        <v>2156.862707505677</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y23" t="n">
-        <v>1766.723375529866</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>464.928886609972</v>
+        <v>1567.641263708174</v>
       </c>
       <c r="C26" t="n">
-        <v>464.928886609972</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>840.4130481610121</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>454.6247955627678</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036444</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1615.133816910985</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X26" t="n">
-        <v>1241.668058649906</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y26" t="n">
-        <v>851.5287266740938</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6308,46 +6308,46 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632152</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632152</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2442.464602812335</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2153.047432775375</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1992.620445413571</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="C29" t="n">
-        <v>1689.643533783874</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.377835177124</v>
+        <v>582.5073929522921</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>582.5073929522921</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>171.5214881626845</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>171.5214881626845</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036444</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2366.086203674651</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W29" t="n">
-        <v>2366.086203674651</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X29" t="n">
-        <v>1992.620445413571</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y29" t="n">
-        <v>1992.620445413571</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,25 +6542,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6578,13 +6578,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2191.899271560059</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632152</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632152</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632152</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>2594.340315533829</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>2373.547736390299</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2476.569858826099</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="C32" t="n">
-        <v>2107.607341885688</v>
+        <v>1725.724578248621</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>1367.45887964187</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>981.6706270436262</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>570.6847222540187</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>152.7209141522055</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>152.7209141522055</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6733,19 +6733,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="33">
@@ -6791,19 +6791,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>183.971520364736</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036444</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>684.3735766921516</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1937.083492693021</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C35" t="n">
-        <v>1568.120975752609</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D35" t="n">
-        <v>1209.855277145859</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>824.0670245476144</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>413.0811197580069</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>413.0811197580069</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>2323.683332757143</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,34 +6992,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
         <v>670.8219208598708</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2169.853036130063</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C37" t="n">
-        <v>2169.853036130063</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D37" t="n">
-        <v>2169.853036130063</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>2169.853036130063</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.742370083244</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y37" t="n">
-        <v>2169.853036130063</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>546.109828622464</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C38" t="n">
-        <v>546.109828622464</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D38" t="n">
-        <v>187.8441300157135</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="E38" t="n">
-        <v>187.8441300157135</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="F38" t="n">
-        <v>187.8441300157135</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>187.8441300157135</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>187.8441300157135</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,10 +7198,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
         <v>2247.308246834948</v>
@@ -7210,16 +7210,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="D40" t="n">
-        <v>675.4941957298054</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="E40" t="n">
-        <v>527.5811021474123</v>
+        <v>91.18278114677892</v>
       </c>
       <c r="F40" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1577.945354755378</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X41" t="n">
-        <v>2354.684526795312</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y41" t="n">
-        <v>1964.5451948195</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D43" t="n">
-        <v>111.0094142528941</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E43" t="n">
-        <v>111.0094142528941</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.0094142528941</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1920.918182229333</v>
+        <v>1933.54400078133</v>
       </c>
       <c r="C44" t="n">
-        <v>1551.955665288921</v>
+        <v>1933.54400078133</v>
       </c>
       <c r="D44" t="n">
-        <v>1193.689966682171</v>
+        <v>1575.27830217458</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.689966682171</v>
+        <v>1189.490049576336</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>778.5041447867281</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>2311.057514205145</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1920.918182229333</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7794,19 +7794,19 @@
         <v>430.0992512117053</v>
       </c>
       <c r="F46" t="n">
-        <v>430.0992512117053</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G46" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
         <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>354.0566759388318</v>
+        <v>283.7408238317659</v>
       </c>
       <c r="N12" t="n">
         <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
-        <v>124.673618687554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>84.40768042974365</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>41.04291380991529</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>151.7585116127252</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.0645821157899</v>
+        <v>82.6547625601217</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9956,7 +9956,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22597,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>71.10541651401837</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>158.5530912385654</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23083,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>199.1042955868168</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>246.9291622192772</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>225.5388828863796</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
@@ -23396,13 +23396,13 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>69.43483284768993</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>129.1485236562874</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>138.5495897973191</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,10 +23463,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>222.2386165758481</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>33.73064926485586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463312</v>
+        <v>178.1163791463313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492351</v>
+        <v>97.14353343492375</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215387</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
         <v>219.4215416234949</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>72.40842911126208</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826704</v>
+        <v>72.27434132826716</v>
       </c>
       <c r="S15" t="n">
         <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>148.9781981644998</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>101.6212517839593</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781602</v>
+        <v>66.73999539781613</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.63455058802092</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191052</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>80.89320841912388</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>95.10207693482465</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>45.96965419735039</v>
       </c>
       <c r="X17" t="n">
-        <v>16.15514203988175</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>126.0327064945689</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>69.82361682150335</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>1.107082982095847</v>
+        <v>296.9788778378463</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.78593771067564</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>1.88527183700694</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>6.044675085515109</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>184.0885497184626</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,10 +24414,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>334.1238229010893</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>302.3647090711141</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24660,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>65.32574925760747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>207.5200514854603</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>123.9289676594883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>54.14116323633858</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>16.69279486400342</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>120.3073324509524</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>221.2695895846566</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7942127384456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>90.82072040399686</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>19.36917953146573</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>108.5536466897809</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25602,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25687,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>264.5083142795568</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>88.92527991472693</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25833,10 +25833,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25845,7 +25845,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23347351367522</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>20.39139144845211</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>86.05160619575683</v>
+        <v>75.30176537689294</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465368.9729778748</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495176.2609070226</v>
+        <v>495176.2609070227</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648938.2625042265</v>
+        <v>648938.2625042258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131496</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="15">
@@ -26325,10 +26325,10 @@
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550208</v>
+        <v>187164.7872550206</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26340,10 +26340,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,7 +26352,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689339</v>
+        <v>195194.8921689329</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328013</v>
+        <v>185152.0893328025</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213677</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138695</v>
+        <v>49441.87186138667</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112614</v>
+        <v>47231.86264112643</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16991.84893966587</v>
+        <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
         <v>17618.81825911156</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221587</v>
+        <v>33615.28060221578</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122433</v>
+        <v>-25254.8625312648</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032343</v>
+        <v>55514.56900028294</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028297</v>
       </c>
       <c r="E6" t="n">
-        <v>68570.9568988391</v>
+        <v>56904.00430751457</v>
       </c>
       <c r="F6" t="n">
-        <v>-59264.20377524061</v>
+        <v>-68092.44881840794</v>
       </c>
       <c r="G6" t="n">
-        <v>-21290.4069532679</v>
+        <v>-27358.82069908822</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804272</v>
+        <v>94733.32603460798</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="M6" t="n">
-        <v>155104.0993843197</v>
+        <v>149035.6856385005</v>
       </c>
       <c r="N6" t="n">
-        <v>114419.8105181464</v>
+        <v>108351.3967723275</v>
       </c>
       <c r="O6" t="n">
-        <v>116629.8197384073</v>
+        <v>110561.4059925878</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795333</v>
+        <v>157793.2686337142</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435338</v>
+        <v>208.7913421435329</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,16 +26801,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652439</v>
+        <v>478.0202194652428</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244085</v>
+        <v>173.7700814244076</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735528</v>
+        <v>168.9523220735538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628885</v>
+        <v>201.8637057628873</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893115</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469654</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628883</v>
+        <v>201.8637057628872</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893117</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628885</v>
+        <v>201.8637057628873</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893115</v>
+        <v>196.2670532893128</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714922</v>
+        <v>0.8393621794714884</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512421</v>
+        <v>8.596117920512382</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407473</v>
+        <v>32.35951042407459</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991862</v>
+        <v>71.2398157799183</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369469</v>
+        <v>106.7700168369464</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369476</v>
+        <v>132.457647136947</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961238</v>
+        <v>147.3846542961231</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885471</v>
+        <v>149.7694920885465</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164275</v>
+        <v>141.4230844164268</v>
       </c>
       <c r="P14" t="n">
-        <v>120.701330610725</v>
+        <v>120.7013306107245</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840216</v>
+        <v>90.64167255840175</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622616</v>
+        <v>52.72558450622593</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470665</v>
+        <v>19.12696566470656</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636459</v>
+        <v>3.674307940636442</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771935</v>
+        <v>0.06714897435771905</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728841</v>
+        <v>0.4490983585728821</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585487</v>
+        <v>4.337344673585467</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647869</v>
+        <v>15.46237769647862</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692324</v>
+        <v>42.42994623692304</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130647</v>
+        <v>72.51953626130614</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995889</v>
+        <v>97.51146596995846</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682259</v>
+        <v>113.7912814682254</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921643</v>
+        <v>116.8029980921637</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364177</v>
+        <v>106.8519239364173</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099224</v>
+        <v>85.75808919099185</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152590008</v>
+        <v>57.32701152589983</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437609</v>
+        <v>27.88349282437597</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037527029</v>
+        <v>8.341805037526992</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81018154179158</v>
+        <v>1.810181541791572</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295291</v>
+        <v>0.02954594464295278</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358806</v>
+        <v>0.3765089776358789</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071741</v>
+        <v>3.347507092071726</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017721</v>
+        <v>11.32265180017716</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885676</v>
+        <v>26.61918471885664</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351412</v>
+        <v>43.74349758351393</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779266</v>
+        <v>55.97661654779241</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886808</v>
+        <v>59.01949364886782</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495257</v>
+        <v>57.61614200495232</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438795</v>
+        <v>53.21783258438771</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061595</v>
+        <v>45.53704944061574</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367361</v>
+        <v>31.52749266367346</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806423</v>
+        <v>16.92921275806415</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527118</v>
+        <v>6.561524637527087</v>
       </c>
       <c r="T16" t="n">
-        <v>1.60872017717149</v>
+        <v>1.608720177171482</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559351</v>
+        <v>0.02053685332559342</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>231.0092291087368</v>
+        <v>160.6933770016709</v>
       </c>
       <c r="N12" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.2905264253061</v>
+        <v>59.29052642530579</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631311</v>
+        <v>210.8255783631306</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174108</v>
+        <v>314.3524467174102</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616835</v>
+        <v>366.5519545616828</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039404</v>
+        <v>357.7033529039397</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574861</v>
+        <v>292.1250542574854</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269381</v>
+        <v>211.2670430269376</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385736</v>
+        <v>80.65097334385695</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066538</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995261</v>
+        <v>199.1433342995257</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>329.7974314935435</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962075</v>
+        <v>437.362311296207</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523845</v>
+        <v>464.803660352384</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687028</v>
+        <v>358.1179987687024</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165991</v>
+        <v>103.5421933893869</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.4098195556684</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763127</v>
+        <v>21.47400575763108</v>
       </c>
       <c r="L16" t="n">
-        <v>83.5666418081088</v>
+        <v>83.56664180810856</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070867</v>
+        <v>98.6033706107084</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841812</v>
+        <v>101.7483143841809</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842762</v>
+        <v>77.80296049842738</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550943</v>
+        <v>42.81560870550923</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604434.9558680438</v>
+        <v>670752.5710875537</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009823</v>
+        <v>406463.298100982</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873706.15590772</v>
+        <v>7873706.155907718</v>
       </c>
     </row>
     <row r="11">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
@@ -721,10 +721,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>29.79900896488251</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>10.15660466682553</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,67 +1378,67 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>222.4795457699687</v>
+      </c>
+      <c r="U11" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>45.58123541261014</v>
+      </c>
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>102.2133755837553</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>190.9922292022293</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>163.3657543017353</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>164.0619219347954</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>313.8295095447915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493647</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>2.921144936066923</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>104.0614439933451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>19.97459347269062</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>226.33686925111</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.1964155683406</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>252.0622503311643</v>
       </c>
       <c r="W17" t="n">
-        <v>303.2713145200626</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>26.26583888007739</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>160.2491677474088</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>153.1096317165487</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>52.26209087956677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.6993815150879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>325.1010882360447</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>317.878097678842</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>68.19029374363612</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9051600201235</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>72.75222284062217</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>89.06613335611763</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
-        <v>116.4027212788969</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.06613335611763</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>97.79015300852267</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>173.0605024344699</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>128.7282531589278</v>
+        <v>67.41850321461123</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.39108932486009</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>156.058273978505</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>121.2699779972374</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>4.440065804380572</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>316.0553253377146</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>157.0285793808751</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>36.86740133315034</v>
+        <v>118.9283458032787</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>349.6295029869917</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>63.24394419057808</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>163.4435927426897</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>209.5972717395336</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>393.3927785723429</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4357,19 +4357,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
         <v>19.28114311021272</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,19 +4439,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4518,7 +4518,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>523.3877459726342</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>279.9389693285341</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
         <v>19.28114311021272</v>
@@ -4825,25 +4825,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
         <v>506.1786963984129</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,22 +4910,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4995,16 +4995,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E11" t="n">
         <v>301.0384945329112</v>
@@ -5032,7 +5032,7 @@
         <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5050,10 +5050,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>962.1762753293418</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>962.1762753293418</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="V11" t="n">
-        <v>858.9304414063566</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="W11" t="n">
-        <v>858.9304414063566</v>
+        <v>626.0261199015633</v>
       </c>
       <c r="X11" t="n">
         <v>579.9844679696339</v>
       </c>
       <c r="Y11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355.783005382771</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C12" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>181.329976101644</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5123,10 +5123,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>45.18387750277333</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>291.3393440954743</v>
       </c>
       <c r="M12" t="n">
         <v>564.7342926608062</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>739.7005984219851</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>511.4819860561328</v>
       </c>
       <c r="V12" t="n">
-        <v>939.6101413733256</v>
+        <v>276.3298778243901</v>
       </c>
       <c r="W12" t="n">
-        <v>939.6101413733256</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X12" t="n">
-        <v>731.7586411677928</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y12" t="n">
-        <v>523.9983424028389</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>30.05653407522894</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
         <v>22.09252109618844</v>
@@ -5238,13 +5238,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>835.0157749450711</v>
+        <v>1151.258085702626</v>
       </c>
       <c r="C14" t="n">
-        <v>835.0157749450711</v>
+        <v>782.2955687622141</v>
       </c>
       <c r="D14" t="n">
-        <v>835.0157749450711</v>
+        <v>424.0298701554636</v>
       </c>
       <c r="E14" t="n">
-        <v>449.227522346827</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="F14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827218</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977715</v>
+        <v>305.656561297771</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480078</v>
+        <v>616.8654835480068</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640737</v>
+        <v>979.7519185640723</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938974</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653885</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250553</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860971</v>
+        <v>1690.442957029155</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860971</v>
+        <v>1690.442957029155</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860971</v>
+        <v>1690.442957029155</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.080877860971</v>
+        <v>1524.723843963706</v>
       </c>
       <c r="X14" t="n">
-        <v>1538.615119599891</v>
+        <v>1151.258085702626</v>
       </c>
       <c r="Y14" t="n">
-        <v>1221.615615009193</v>
+        <v>1151.258085702626</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>681.1754406927597</v>
+        <v>805.6782601899234</v>
       </c>
       <c r="C15" t="n">
-        <v>506.7224114116327</v>
+        <v>631.2252309087964</v>
       </c>
       <c r="D15" t="n">
-        <v>506.7224114116327</v>
+        <v>482.2908212475452</v>
       </c>
       <c r="E15" t="n">
-        <v>506.7224114116327</v>
+        <v>323.0533662420897</v>
       </c>
       <c r="F15" t="n">
-        <v>360.1878534385177</v>
+        <v>176.5188082689747</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9106627267623</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="H15" t="n">
-        <v>112.9226833702866</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="J15" t="n">
-        <v>38.24161755721943</v>
+        <v>70.35630405680871</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3935185137499</v>
+        <v>70.35630405680871</v>
       </c>
       <c r="L15" t="n">
-        <v>561.8929756923579</v>
+        <v>396.8557612354164</v>
       </c>
       <c r="M15" t="n">
-        <v>994.8816638756028</v>
+        <v>829.844449418661</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.037287624463</v>
+        <v>1290.000073167521</v>
       </c>
       <c r="O15" t="n">
-        <v>1809.574106405478</v>
+        <v>1644.536891948536</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860971</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860971</v>
+        <v>1839.076492680901</v>
       </c>
       <c r="S15" t="n">
-        <v>1912.080877860971</v>
+        <v>1674.085213826041</v>
       </c>
       <c r="T15" t="n">
-        <v>1711.722749423567</v>
+        <v>1671.134562375468</v>
       </c>
       <c r="U15" t="n">
-        <v>1483.528975548484</v>
+        <v>1671.134562375468</v>
       </c>
       <c r="V15" t="n">
-        <v>1248.376867316742</v>
+        <v>1435.982454143726</v>
       </c>
       <c r="W15" t="n">
-        <v>994.1395105885401</v>
+        <v>1181.745097415524</v>
       </c>
       <c r="X15" t="n">
-        <v>786.2880103830073</v>
+        <v>973.8935972099914</v>
       </c>
       <c r="Y15" t="n">
-        <v>681.1754406927597</v>
+        <v>973.8935972099914</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="C16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="D16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="E16" t="n">
-        <v>38.24161755721943</v>
+        <v>185.1315650551297</v>
       </c>
       <c r="F16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="G16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721943</v>
+        <v>38.24161755721937</v>
       </c>
       <c r="K16" t="n">
-        <v>59.5008832572742</v>
+        <v>59.50088325727403</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473017</v>
+        <v>142.2318586473014</v>
       </c>
       <c r="M16" t="n">
-        <v>239.849195551903</v>
+        <v>239.8491955519025</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922421</v>
+        <v>340.5800267922415</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856852</v>
+        <v>417.6049576856844</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041393</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="T16" t="n">
-        <v>231.3693100504928</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="U16" t="n">
-        <v>38.24161755721943</v>
+        <v>459.9924103041384</v>
       </c>
       <c r="V16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="W16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="X16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.24161755721943</v>
+        <v>205.3079220982516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1763.586886263858</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C17" t="n">
-        <v>1394.624369323446</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D17" t="n">
-        <v>1036.358670716696</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2443.387305656314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V17" t="n">
-        <v>2443.387305656314</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="W17" t="n">
-        <v>2137.052644524937</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="X17" t="n">
-        <v>1763.586886263858</v>
+        <v>1992.699913167106</v>
       </c>
       <c r="Y17" t="n">
-        <v>1763.586886263858</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5600,19 +5600,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.9727148150933</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C19" t="n">
-        <v>351.9727148150933</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.9727148150933</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1494.154169929768</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C20" t="n">
-        <v>1125.191652989356</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>766.9259543826058</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
         <v>381.1377017843616</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2644.359100230781</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>2270.893341969701</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y20" t="n">
-        <v>1880.75400999389</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424003</v>
@@ -5831,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5940,19 +5940,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>500.8207968750362</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>500.8207968750362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
         <v>53.94298182036445</v>
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1520.223993023726</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C23" t="n">
-        <v>1151.261476083314</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D23" t="n">
-        <v>792.9957774765635</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>792.9957774765635</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>792.9957774765635</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>375.0319693747504</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628376</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284805</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W23" t="n">
-        <v>1893.689751284805</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X23" t="n">
-        <v>1520.223993023726</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y23" t="n">
-        <v>1520.223993023726</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1567.641263708174</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="C26" t="n">
-        <v>1198.678746767763</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D26" t="n">
-        <v>840.4130481610121</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E26" t="n">
-        <v>454.6247955627678</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G26" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748108</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y26" t="n">
-        <v>1954.241103772296</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6302,52 +6302,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>290.7987205870805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>940.7730915590425</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>940.7730915590425</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>582.5073929522921</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>582.5073929522921</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>171.5214881626845</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
-        <v>171.5214881626845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1717.512263598976</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1327.372931623164</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>290.7987205870805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>143.9087730891701</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694736</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694736</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694736</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1725.724578248621</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C32" t="n">
-        <v>1725.724578248621</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>1367.45887964187</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>981.6706270436262</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>570.6847222540187</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>152.7209141522055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>152.7209141522055</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656313</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>1994.915360841223</v>
       </c>
       <c r="W32" t="n">
-        <v>2112.324418312743</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X32" t="n">
-        <v>2112.324418312743</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y32" t="n">
-        <v>2112.324418312743</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961344</v>
@@ -6776,7 +6776,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6791,31 +6791,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C34" t="n">
-        <v>331.8846139471291</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D34" t="n">
-        <v>331.8846139471291</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E34" t="n">
-        <v>183.971520364736</v>
+        <v>291.042280278609</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>534.603677789272</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C35" t="n">
-        <v>534.603677789272</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.109828622464</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7037,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>541.9956044222747</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C37" t="n">
-        <v>373.0594214943678</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D37" t="n">
-        <v>222.942782082032</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E37" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X37" t="n">
-        <v>723.6440692525144</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y37" t="n">
-        <v>723.6440692525144</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1640.777806202926</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C38" t="n">
-        <v>1271.815289262514</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D38" t="n">
-        <v>1271.815289262514</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E38" t="n">
-        <v>1271.815289262514</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W38" t="n">
-        <v>1640.777806202926</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="X38" t="n">
-        <v>1640.777806202926</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y38" t="n">
-        <v>1640.777806202926</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
@@ -7277,25 +7277,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.18278114677892</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>91.18278114677892</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D40" t="n">
-        <v>91.18278114677892</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E40" t="n">
-        <v>91.18278114677892</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036444</v>
@@ -7374,10 +7374,10 @@
         <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>272.8312459770186</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.8312459770186</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1251.855211652197</v>
+        <v>1503.550419308994</v>
       </c>
       <c r="C41" t="n">
-        <v>882.8926947117851</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117851</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117851</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2465.942913862885</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2402.06014195321</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>2402.06014195321</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X41" t="n">
-        <v>2028.59438369213</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1638.455051716319</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,13 +7502,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>578.0123447940985</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1933.54400078133</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="C44" t="n">
-        <v>1933.54400078133</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.27830217458</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E44" t="n">
-        <v>1189.490049576336</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>778.5041447867281</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757142</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.54400078133</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="45">
@@ -7739,13 +7739,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8771,13 +8771,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>149.002100311894</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>283.7408238317659</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
         <v>387.9064735273546</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974365</v>
+        <v>116.8467577020562</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>65.32190271305303</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>151.7585116127252</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.6547625601217</v>
+        <v>82.65476256012184</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22597,10 +22597,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
@@ -22609,10 +22609,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22679,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>170.3657197299391</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22758,10 +22758,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,19 +22916,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>222.6439824825997</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>225.5388828863796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>93.57458697611355</v>
+        <v>324.1498652658589</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23387,25 +23387,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>8.868871769942587</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>69.43483284768993</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>138.5495897973191</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.4633753356636</v>
@@ -23515,7 +23515,7 @@
         <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463313</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492375</v>
+        <v>97.14353343492388</v>
       </c>
       <c r="S14" t="n">
         <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2785039334788</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>185.1790467826177</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.40842911126208</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493649</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826716</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663108</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.4334022169631</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.6212517839593</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>126.4593691738785</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781613</v>
+        <v>66.7399953978162</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802092</v>
+        <v>54.634550588021</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>95.10207693482465</v>
+        <v>286.2984925031653</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>75.69000813897057</v>
       </c>
       <c r="W17" t="n">
-        <v>45.96965419735039</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.1681237664918</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23940,13 +23940,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>126.0327064945689</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.1632600544588</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>296.9788778378463</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24180,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.88527183700694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>29.58195338463827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.044675085515109</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24372,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293305</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>97.36773175088405</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>334.1238229010893</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>78.24366890293328</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,10 +24657,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
-        <v>207.5200514854603</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>11.05637510633818</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>78.24366890293328</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>54.14116323633858</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>154.691756035665</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,19 +25086,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.69279486400342</v>
+        <v>78.00254480832001</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,10 +25128,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.3427523386205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>193.1826947389081</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>25.16398464933175</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25371,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>221.2695895846566</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>90.82072040399686</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>229.2093592751785</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>108.5536466897809</v>
+        <v>26.4927022196525</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15.64338878401588</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>264.5083142795568</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>75.30176537689294</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
         <v>45.19995918853701</v>
@@ -25836,7 +25836,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>62.26606264634745</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>155.6756200314739</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>20.39139144845211</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>75.30176537689294</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26076,10 +26076,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>23.70481751979031</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778745</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648938.2625042258</v>
+        <v>648938.2625042251</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131496</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.866113149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="15">
@@ -26319,22 +26319,22 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550206</v>
+        <v>187164.7872550204</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26343,7 +26343,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689329</v>
+        <v>195194.8921689322</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328025</v>
+        <v>185152.089332803</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213677</v>
+        <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138667</v>
+        <v>49441.87186138651</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112643</v>
+        <v>47231.86264112663</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>16991.84893966586</v>
       </c>
       <c r="F4" t="n">
-        <v>17618.81825911156</v>
+        <v>17618.81825911155</v>
       </c>
       <c r="G4" t="n">
         <v>18228.92756966326</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221578</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25254.8625312648</v>
+        <v>-14258.65297322841</v>
       </c>
       <c r="C6" t="n">
-        <v>55514.56900028294</v>
+        <v>66510.77855831939</v>
       </c>
       <c r="D6" t="n">
-        <v>55514.56900028297</v>
+        <v>66510.77855831942</v>
       </c>
       <c r="E6" t="n">
-        <v>56904.00430751457</v>
+        <v>67404.2616397067</v>
       </c>
       <c r="F6" t="n">
-        <v>-68092.44881840794</v>
+        <v>-60147.02827955595</v>
       </c>
       <c r="G6" t="n">
-        <v>-27358.82069908822</v>
+        <v>-21897.24832785154</v>
       </c>
       <c r="H6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="I6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049516</v>
       </c>
       <c r="J6" t="n">
-        <v>94733.32603460798</v>
+        <v>100194.8984058452</v>
       </c>
       <c r="K6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="L6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="M6" t="n">
-        <v>149035.6856385005</v>
+        <v>154497.2580097378</v>
       </c>
       <c r="N6" t="n">
-        <v>108351.3967723275</v>
+        <v>113812.9691435649</v>
       </c>
       <c r="O6" t="n">
-        <v>110561.4059925878</v>
+        <v>116022.9783638249</v>
       </c>
       <c r="P6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435329</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26758,10 +26758,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26801,7 +26801,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652428</v>
+        <v>478.0202194652421</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,25 +26810,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545555</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244076</v>
+        <v>173.770081424407</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735538</v>
+        <v>168.9523220735543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628873</v>
+        <v>201.8637057628866</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469654</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628872</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893137</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628873</v>
+        <v>201.8637057628866</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893128</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714884</v>
+        <v>0.8393621794714862</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512382</v>
+        <v>8.596117920512359</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407459</v>
+        <v>32.3595104240745</v>
       </c>
       <c r="J14" t="n">
-        <v>71.2398157799183</v>
+        <v>71.23981577991812</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369464</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.457647136947</v>
+        <v>132.4576471369467</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961231</v>
+        <v>147.3846542961227</v>
       </c>
       <c r="N14" t="n">
-        <v>149.7694920885465</v>
+        <v>149.7694920885461</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164268</v>
+        <v>141.4230844164265</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107245</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840175</v>
+        <v>90.64167255840152</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622593</v>
+        <v>52.72558450622579</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470656</v>
+        <v>19.12696566470651</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636442</v>
+        <v>3.674307940636433</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771905</v>
+        <v>0.06714897435771888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728821</v>
+        <v>0.4490983585728809</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585467</v>
+        <v>4.337344673585456</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647862</v>
+        <v>15.46237769647858</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692304</v>
+        <v>42.42994623692294</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130614</v>
+        <v>72.51953626130596</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995846</v>
+        <v>97.51146596995821</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682254</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921637</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364173</v>
+        <v>106.851923936417</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099185</v>
+        <v>85.75808919099163</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589983</v>
+        <v>57.32701152589968</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437597</v>
+        <v>27.8834928243759</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526992</v>
+        <v>8.341805037526971</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791572</v>
+        <v>1.810181541791568</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295278</v>
+        <v>0.0295459446429527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358789</v>
+        <v>0.376508977635878</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071726</v>
+        <v>3.347507092071718</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017716</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885664</v>
+        <v>26.61918471885657</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351393</v>
+        <v>43.74349758351381</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779241</v>
+        <v>55.97661654779227</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886782</v>
+        <v>59.01949364886767</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495232</v>
+        <v>57.61614200495217</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438771</v>
+        <v>53.21783258438757</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061574</v>
+        <v>45.53704944061563</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367346</v>
+        <v>31.52749266367339</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806415</v>
+        <v>16.92921275806411</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527087</v>
+        <v>6.561524637527071</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171482</v>
+        <v>1.608720177171478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559342</v>
+        <v>0.02053685332559337</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,22 +32882,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>23.32460243089383</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>160.6933770016709</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
         <v>276.1565137023555</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530579</v>
+        <v>59.2905264253056</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631306</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174102</v>
+        <v>314.3524467174099</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616828</v>
+        <v>366.5519545616825</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039397</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574854</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269376</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385695</v>
+        <v>80.65097334385672</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>32.43907727231247</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995257</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935435</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>437.362311296207</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>464.803660352384</v>
+        <v>464.8036603523836</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687024</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>103.5421933893869</v>
+        <v>270.2464504165986</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763108</v>
+        <v>21.47400575763096</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810856</v>
+        <v>83.56664180810841</v>
       </c>
       <c r="M16" t="n">
-        <v>98.6033706107084</v>
+        <v>98.60337061070825</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841809</v>
+        <v>101.7483143841808</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842738</v>
+        <v>77.80296049842724</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870550923</v>
+        <v>42.81560870550911</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
